--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1102.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1102.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7679806877211397</v>
+        <v>1.176486372947693</v>
       </c>
       <c r="B1">
-        <v>1.104347550208108</v>
+        <v>2.414991140365601</v>
       </c>
       <c r="C1">
-        <v>2.04826022069203</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.337298154830933</v>
       </c>
       <c r="E1">
-        <v>1.920684044725289</v>
+        <v>1.204263210296631</v>
       </c>
     </row>
   </sheetData>
